--- a/src/test/resources/Excel/testData.xlsx
+++ b/src/test/resources/Excel/testData.xlsx
@@ -2,16 +2,18 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
   <sheets>
     <sheet state="visible" name="testData" sheetId="1" r:id="rId4"/>
   </sheets>
-  <definedNames/>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>validateCreateCustomer</t>
   </si>
@@ -59,12 +61,49 @@
   </si>
   <si>
     <t>cus_QyuiEhLbEuY3ol</t>
+  </si>
+  <si>
+    <t>cus_R6l0fRfXnDfkz8</t>
+  </si>
+  <si>
+    <t>DeleteCustomer</t>
+  </si>
+  <si>
+    <t>cus_R6lxeEYfxkyYJg</t>
+  </si>
+  <si>
+    <t>cus_R6m0La9MePRusA</t>
+  </si>
+  <si>
+    <t>cus_R6m04tEx73H6aZ</t>
+  </si>
+  <si>
+    <t>cus_R6m35nZsqfl4Zk</t>
+  </si>
+  <si>
+    <t>cus_R6m44T0UMNXhba</t>
+  </si>
+  <si>
+    <t>Cus1234</t>
+  </si>
+  <si>
+    <t>cus_R6mDq8L38Hsh6n</t>
+  </si>
+  <si>
+    <t>cus_R6mDDd3XfkZ3kh</t>
+  </si>
+  <si>
+    <t>cus_R6mEU6ZWH4KRj7</t>
+  </si>
+  <si>
+    <t>cus_R6mGV8xM5C2mil</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="10.0"/>
@@ -332,6 +371,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -403,18 +443,21 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>13</v>
+      <c r="A10" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13">

--- a/src/test/resources/Excel/testData.xlsx
+++ b/src/test/resources/Excel/testData.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
   <si>
     <t>validateCreateCustomer</t>
   </si>
@@ -97,6 +97,48 @@
   </si>
   <si>
     <t>cus_R6mGV8xM5C2mil</t>
+  </si>
+  <si>
+    <t>cus_R6mKEn0mzMWSPC</t>
+  </si>
+  <si>
+    <t>cus_R6mLyoDuFYLmnA</t>
+  </si>
+  <si>
+    <t>cus_R6mMg5DAhZsnU7</t>
+  </si>
+  <si>
+    <t>cus_R6mOstvVq1WczW</t>
+  </si>
+  <si>
+    <t>cus_R6mPIJltbeXse9</t>
+  </si>
+  <si>
+    <t>cus_R6mPmYUjhj7VPV</t>
+  </si>
+  <si>
+    <t>cus_R6mP55V9UxXB30</t>
+  </si>
+  <si>
+    <t>cus_R6mPPX2VynNVSb</t>
+  </si>
+  <si>
+    <t>cus_R6mTKbc7VbJtz4</t>
+  </si>
+  <si>
+    <t>cus_R6mTN9pZJtWOda</t>
+  </si>
+  <si>
+    <t>cus_R6mTtOPjgSx33W</t>
+  </si>
+  <si>
+    <t>cus_R6mTUb17u8yfzy</t>
+  </si>
+  <si>
+    <t>cus_R6mWvNjynWsjDc</t>
+  </si>
+  <si>
+    <t>cus_R6mXBRDK1m1FEk</t>
   </si>
 </sst>
 </file>
@@ -457,7 +499,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13">

--- a/src/test/resources/Excel/testData.xlsx
+++ b/src/test/resources/Excel/testData.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
   <si>
     <t>validateCreateCustomer</t>
   </si>
@@ -139,6 +139,12 @@
   </si>
   <si>
     <t>cus_R6mXBRDK1m1FEk</t>
+  </si>
+  <si>
+    <t>cus_R7y4xMsmazi9Zp</t>
+  </si>
+  <si>
+    <t>cus_R7y4vbUSog5bAZ</t>
   </si>
 </sst>
 </file>
@@ -499,7 +505,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13">
